--- a/medicine/Enfance/Guillaume_Chérel/Guillaume_Chérel.xlsx
+++ b/medicine/Enfance/Guillaume_Chérel/Guillaume_Chérel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guillaume_Ch%C3%A9rel</t>
+          <t>Guillaume_Chérel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guillaume Chérel, né à Paris en 1964, est un écrivain et journaliste français, auteur de romans, de polars, d'essais, de récits de voyage et de livres pour enfants.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guillaume_Ch%C3%A9rel</t>
+          <t>Guillaume_Chérel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">[style à revoir]
-Guillaume Chérel passe son enfance à Bagnolet et à Montreuil, en Seine-Saint-Denis, au sein d'une famille de culture communiste[1], tendance Pif Gadget, ex-ORTF et SFP.
+Guillaume Chérel passe son enfance à Bagnolet et à Montreuil, en Seine-Saint-Denis, au sein d'une famille de culture communiste, tendance Pif Gadget, ex-ORTF et SFP.
 Journaliste - d'abord dans le sport puis la critique littéraire, il a été assistant-réalisateur et car-sitter[évasif] à New-York. Il parcourt alors le monde, des Comores en Chine, en passant par le Maghreb et l'Afrique francophone.
 En 1986, Guillaume Chérel abandonne ses études de Lettres à la Sorbonne puis fait ses premiers pas en tant que journaliste dans les pages Sports de L'Humanité. Il travaillera ensuite pour Révolution, Regards, Politis, Technikart, VSD, et deviendra critique littéraire pour Le Point et L'Humanité.
-Installé dans un village près de Toulouse en 2002[2], il est retourné à Paris en 2009. Lancé grâce à la série du Poulpe, dont il écrit le no  71, Tropique du Grand Cerf, en 1996, Guillaume Cherel obtient à deux reprises la bourse Stendhal-Cultures France[2] : en 2004 pour Les Pères de famille ne portent pas de robe, paru chez Julliard, et en 2008 pour Sur la route again (paru chez Transboréal en 2013).
+Installé dans un village près de Toulouse en 2002, il est retourné à Paris en 2009. Lancé grâce à la série du Poulpe, dont il écrit le no  71, Tropique du Grand Cerf, en 1996, Guillaume Cherel obtient à deux reprises la bourse Stendhal-Cultures France : en 2004 pour Les Pères de famille ne portent pas de robe, paru chez Julliard, et en 2008 pour Sur la route again (paru chez Transboréal en 2013).
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Guillaume_Ch%C3%A9rel</t>
+          <t>Guillaume_Chérel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,28 +562,176 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Zarma le Zarbi
-Zarma le Zarbi, Fleuve, 1998
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Zarma le Zarbi</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Zarma le Zarbi, Fleuve, 1998
 Les Enfants rouges, Flammarion, 2001
-Prends ça dans ta gueule !, Rocher, 2006
-Autres romans
-Tropique du Grand Cerf, La Baleine, 1998
+Prends ça dans ta gueule !, Rocher, 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Guillaume_Chérel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Ch%C3%A9rel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tropique du Grand Cerf, La Baleine, 1998
 Les pères de famille ne portent pas de robe, Julliard, 2004
 Les hommes sont des maîtresses comme les autres, Plon, 2013 (Pocket 2015)
-Un bon écrivain est un écrivain mort, Mirobole, 2016[3],[4]
+Un bon écrivain est un écrivain mort, Mirobole, 2016,
 Cadavres, Vautours et Poulet au citron  Michel Lafon 2018
-La femme qui mangeait des fleurs, Melmac-Cat, 2021
-Littérature pour la jeunesse
-Sur la piste de Liza, Thierry Magnier, 2000
-La Fille aux cheveux roses, Syros Jeunesse, collection Souris noire, 2004
-Biographies et récits
-Hemingway : l'écrivain et son île, Le Castor Astral, collection Tombeau, 1998
+La femme qui mangeait des fleurs, Melmac-Cat, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Guillaume_Chérel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Ch%C3%A9rel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sur la piste de Liza, Thierry Magnier, 2000
+La Fille aux cheveux roses, Syros Jeunesse, collection Souris noire, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Guillaume_Chérel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Ch%C3%A9rel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biographies et récits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hemingway : l'écrivain et son île, Le Castor Astral, collection Tombeau, 1998
 Jack London, le mangeur de vent, Flammarion, 2000 - E. Fractions, 2014
 Sur la route again : aux États-Unis avec Kerouac, Transboréal, 2013
-Papa Graine, avec Isabelle Maltese et Audrey Hervé, éd. Anne Carrière, 2019[5]
-Essai
-Le Fils caché de Trotsky, Christine Derey, 2002</t>
+Papa Graine, avec Isabelle Maltese et Audrey Hervé, éd. Anne Carrière, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Guillaume_Chérel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Ch%C3%A9rel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Essai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Fils caché de Trotsky, Christine Derey, 2002</t>
         </is>
       </c>
     </row>
